--- a/Assignment2/code/Group35.xlsx
+++ b/Assignment2/code/Group35.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignments\AE4423\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fos van der Meer\Documents\Uni\TIL\AE4423\Assignments\AE4423\Assignment2\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A840B8-7523-4372-87EA-93810E5849A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE86289F-EBC0-4E16-9C89-1E9ACF3E1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{883722A1-D30E-6348-BEC2-547431745F40}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{883722A1-D30E-6348-BEC2-547431745F40}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 35" sheetId="1" r:id="rId1"/>
